--- a/pl/testcase.xlsx
+++ b/pl/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Database\SaleWebsite\pl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDDDF0-AB5E-42A6-9920-9621E3D20518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD021D-F2AA-468A-AAE7-193600E89CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{044B5BA4-174B-4D2A-BD26-B2077AA82DF1}"/>
+    <workbookView xWindow="4755" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{044B5BA4-174B-4D2A-BD26-B2077AA82DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,11 +322,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DB11B0-55CF-4825-A24F-01EEA4DFEBEE}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +744,7 @@
       <c r="L2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="N2" s="1" t="s">

--- a/pl/testcase.xlsx
+++ b/pl/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Database\SaleWebsite\pl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD021D-F2AA-468A-AAE7-193600E89CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E76406-9C58-4BC1-9AC2-E4C631C1E9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{044B5BA4-174B-4D2A-BD26-B2077AA82DF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{044B5BA4-174B-4D2A-BD26-B2077AA82DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DB11B0-55CF-4825-A24F-01EEA4DFEBEE}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pl/testcase.xlsx
+++ b/pl/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Database\SaleWebsite\pl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E76406-9C58-4BC1-9AC2-E4C631C1E9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F3431-0FAF-45B2-94DA-6160ED3851CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{044B5BA4-174B-4D2A-BD26-B2077AA82DF1}"/>
+    <workbookView xWindow="4755" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{044B5BA4-174B-4D2A-BD26-B2077AA82DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>tblAccount</t>
   </si>
@@ -139,24 +139,6 @@
   </si>
   <si>
     <t>distribution</t>
-  </si>
-  <si>
-    <t>0999999999</t>
-  </si>
-  <si>
-    <t>0111111111</t>
-  </si>
-  <si>
-    <t>0222222222</t>
-  </si>
-  <si>
-    <t>0333333333</t>
-  </si>
-  <si>
-    <t>0444444444</t>
-  </si>
-  <si>
-    <t>0555555555</t>
   </si>
   <si>
     <t>7A/19 Thành Thái, Phường 14, Quận 10, Hồ Chí Minh, Việt Nam</t>
@@ -646,7 +628,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +636,7 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -698,19 +681,19 @@
         <v>35</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -730,25 +713,25 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2">
+        <v>111111111</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
@@ -760,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -780,25 +763,25 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2">
+        <v>999999999</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="Q3" t="s">
         <v>4</v>
@@ -810,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -830,25 +813,25 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2">
+        <v>333333333</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="Q4" t="s">
         <v>5</v>
@@ -860,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -880,25 +863,25 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2">
+        <v>222222222</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="Q5" t="s">
         <v>5</v>
@@ -910,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -930,25 +913,25 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2">
+        <v>555555555</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q6" t="s">
         <v>5</v>
@@ -960,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -980,25 +963,25 @@
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2">
+        <v>666666666</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
         <v>8</v>
@@ -1010,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
